--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vtn-Itga8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vtn-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -94,7 +97,7 @@
     <t>Itga8</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H2">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I2">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J2">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.375860598353964</v>
+        <v>0.388946</v>
       </c>
       <c r="N2">
-        <v>0.375860598353964</v>
+        <v>0.777892</v>
       </c>
       <c r="O2">
-        <v>0.03879410748625375</v>
+        <v>0.03708650906155245</v>
       </c>
       <c r="P2">
-        <v>0.03879410748625375</v>
+        <v>0.03370939550185763</v>
       </c>
       <c r="Q2">
-        <v>1.055168787550866</v>
+        <v>1.28100726411</v>
       </c>
       <c r="R2">
-        <v>1.055168787550866</v>
+        <v>5.12402905644</v>
       </c>
       <c r="S2">
-        <v>0.002714536642196996</v>
+        <v>0.002766211020863469</v>
       </c>
       <c r="T2">
-        <v>0.002714536642196996</v>
+        <v>0.002200083360166507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H3">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I3">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J3">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.197488887058519</v>
+        <v>0.2382243333333333</v>
       </c>
       <c r="N3">
-        <v>0.197488887058519</v>
+        <v>0.714673</v>
       </c>
       <c r="O3">
-        <v>0.02038363463858944</v>
+        <v>0.02271500130313452</v>
       </c>
       <c r="P3">
-        <v>0.02038363463858944</v>
+        <v>0.03096984518609152</v>
       </c>
       <c r="Q3">
-        <v>0.5544186073903473</v>
+        <v>0.7846001796850001</v>
       </c>
       <c r="R3">
-        <v>0.5544186073903473</v>
+        <v>4.707601078110001</v>
       </c>
       <c r="S3">
-        <v>0.001426302258589485</v>
+        <v>0.001694268037991185</v>
       </c>
       <c r="T3">
-        <v>0.001426302258589485</v>
+        <v>0.002021283385431754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H4">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I4">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J4">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8843721734169659</v>
+        <v>1.044414666666667</v>
       </c>
       <c r="N4">
-        <v>0.8843721734169659</v>
+        <v>3.133244</v>
       </c>
       <c r="O4">
-        <v>0.09127966406598413</v>
+        <v>0.09958630246705613</v>
       </c>
       <c r="P4">
-        <v>0.09127966406598413</v>
+        <v>0.1357768960213274</v>
       </c>
       <c r="Q4">
-        <v>2.482734072299075</v>
+        <v>3.439816259180001</v>
       </c>
       <c r="R4">
-        <v>2.482734072299075</v>
+        <v>20.63889755508</v>
       </c>
       <c r="S4">
-        <v>0.006387103837415129</v>
+        <v>0.00742794979581942</v>
       </c>
       <c r="T4">
-        <v>0.006387103837415129</v>
+        <v>0.008861638874987206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H5">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I5">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J5">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.24237150804453</v>
+        <v>0.373449</v>
       </c>
       <c r="N5">
-        <v>0.24237150804453</v>
+        <v>1.120347</v>
       </c>
       <c r="O5">
-        <v>0.02501615326496686</v>
+        <v>0.03560884987254709</v>
       </c>
       <c r="P5">
-        <v>0.02501615326496686</v>
+        <v>0.04854943889681305</v>
       </c>
       <c r="Q5">
-        <v>0.6804194198599601</v>
+        <v>1.229967352215</v>
       </c>
       <c r="R5">
-        <v>0.6804194198599601</v>
+        <v>7.379804113290001</v>
       </c>
       <c r="S5">
-        <v>0.001750453073540375</v>
+        <v>0.002655995278343116</v>
       </c>
       <c r="T5">
-        <v>0.001750453073540375</v>
+        <v>0.003168636253249121</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H6">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I6">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J6">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.98850705384629</v>
+        <v>0.4452603333333334</v>
       </c>
       <c r="N6">
-        <v>7.98850705384629</v>
+        <v>1.335781</v>
       </c>
       <c r="O6">
-        <v>0.8245264405442058</v>
+        <v>0.04245615429112661</v>
       </c>
       <c r="P6">
-        <v>0.8245264405442058</v>
+        <v>0.05788511777067627</v>
       </c>
       <c r="Q6">
-        <v>22.4264616702663</v>
+        <v>1.466480491945</v>
       </c>
       <c r="R6">
-        <v>22.4264616702663</v>
+        <v>8.798882951670002</v>
       </c>
       <c r="S6">
-        <v>0.05769451549080211</v>
+        <v>0.003166722478750286</v>
       </c>
       <c r="T6">
-        <v>0.05769451549080211</v>
+        <v>0.00377794031938441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.88151546952529</v>
+        <v>3.293535</v>
       </c>
       <c r="H7">
-        <v>3.88151546952529</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I7">
-        <v>0.09674669318312853</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J7">
-        <v>0.09674669318312853</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.375860598353964</v>
+        <v>7.997239</v>
       </c>
       <c r="N7">
-        <v>0.375860598353964</v>
+        <v>15.994478</v>
       </c>
       <c r="O7">
-        <v>0.03879410748625375</v>
+        <v>0.7625471830045831</v>
       </c>
       <c r="P7">
-        <v>0.03879410748625375</v>
+        <v>0.6931093066232342</v>
       </c>
       <c r="Q7">
-        <v>1.458908726895943</v>
+        <v>26.339186549865</v>
       </c>
       <c r="R7">
-        <v>1.458908726895943</v>
+        <v>105.35674619946</v>
       </c>
       <c r="S7">
-        <v>0.003753201614285902</v>
+        <v>0.05687692033927369</v>
       </c>
       <c r="T7">
-        <v>0.003753201614285902</v>
+        <v>0.04523659441458361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H8">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I8">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J8">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.197488887058519</v>
+        <v>0.388946</v>
       </c>
       <c r="N8">
-        <v>0.197488887058519</v>
+        <v>0.777892</v>
       </c>
       <c r="O8">
-        <v>0.02038363463858944</v>
+        <v>0.03708650906155245</v>
       </c>
       <c r="P8">
-        <v>0.02038363463858944</v>
+        <v>0.03370939550185763</v>
       </c>
       <c r="Q8">
-        <v>0.7665561701769743</v>
+        <v>1.688726002097333</v>
       </c>
       <c r="R8">
-        <v>0.7665561701769743</v>
+        <v>10.132356012584</v>
       </c>
       <c r="S8">
-        <v>0.001972049246336604</v>
+        <v>0.003646640116022963</v>
       </c>
       <c r="T8">
-        <v>0.001972049246336604</v>
+        <v>0.004350488183620264</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H9">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I9">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J9">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8843721734169659</v>
+        <v>0.2382243333333333</v>
       </c>
       <c r="N9">
-        <v>0.8843721734169659</v>
+        <v>0.714673</v>
       </c>
       <c r="O9">
-        <v>0.09127966406598413</v>
+        <v>0.02271500130313452</v>
       </c>
       <c r="P9">
-        <v>0.09127966406598413</v>
+        <v>0.03096984518609152</v>
       </c>
       <c r="Q9">
-        <v>3.432704271935656</v>
+        <v>1.034322569282889</v>
       </c>
       <c r="R9">
-        <v>3.432704271935656</v>
+        <v>9.308903123545999</v>
       </c>
       <c r="S9">
-        <v>0.00883100565325081</v>
+        <v>0.00223351933313663</v>
       </c>
       <c r="T9">
-        <v>0.00883100565325081</v>
+        <v>0.003996925590766386</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H10">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I10">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J10">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.24237150804453</v>
+        <v>1.044414666666667</v>
       </c>
       <c r="N10">
-        <v>0.24237150804453</v>
+        <v>3.133244</v>
       </c>
       <c r="O10">
-        <v>0.02501615326496686</v>
+        <v>0.09958630246705613</v>
       </c>
       <c r="P10">
-        <v>0.02501615326496686</v>
+        <v>0.1357768960213274</v>
       </c>
       <c r="Q10">
-        <v>0.9407687578470165</v>
+        <v>4.534640296009778</v>
       </c>
       <c r="R10">
-        <v>0.9407687578470165</v>
+        <v>40.811762664088</v>
       </c>
       <c r="S10">
-        <v>0.002420230104547868</v>
+        <v>0.009792116183813222</v>
       </c>
       <c r="T10">
-        <v>0.002420230104547868</v>
+        <v>0.01752317930818043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H11">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I11">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J11">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>7.98850705384629</v>
+        <v>0.373449</v>
       </c>
       <c r="N11">
-        <v>7.98850705384629</v>
+        <v>1.120347</v>
       </c>
       <c r="O11">
-        <v>0.8245264405442058</v>
+        <v>0.03560884987254709</v>
       </c>
       <c r="P11">
-        <v>0.8245264405442058</v>
+        <v>0.04854943889681305</v>
       </c>
       <c r="Q11">
-        <v>31.00751370791627</v>
+        <v>1.621441117166</v>
       </c>
       <c r="R11">
-        <v>31.00751370791627</v>
+        <v>14.592970054494</v>
       </c>
       <c r="S11">
-        <v>0.07977020656470735</v>
+        <v>0.003501344928829862</v>
       </c>
       <c r="T11">
-        <v>0.07977020656470735</v>
+        <v>0.006265723757352451</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.66838340531167</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H12">
-        <v>5.66838340531167</v>
+        <v>13.025402</v>
       </c>
       <c r="I12">
-        <v>0.1412843397027848</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J12">
-        <v>0.1412843397027848</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.375860598353964</v>
+        <v>0.4452603333333334</v>
       </c>
       <c r="N12">
-        <v>0.375860598353964</v>
+        <v>1.335781</v>
       </c>
       <c r="O12">
-        <v>0.03879410748625375</v>
+        <v>0.04245615429112661</v>
       </c>
       <c r="P12">
-        <v>0.03879410748625375</v>
+        <v>0.05788511777067627</v>
       </c>
       <c r="Q12">
-        <v>2.130521978420124</v>
+        <v>1.933231612106889</v>
       </c>
       <c r="R12">
-        <v>2.130521978420124</v>
+        <v>17.399084508962</v>
       </c>
       <c r="S12">
-        <v>0.005480999860554224</v>
+        <v>0.004174626281301492</v>
       </c>
       <c r="T12">
-        <v>0.005480999860554224</v>
+        <v>0.007470573622565166</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.66838340531167</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H13">
-        <v>5.66838340531167</v>
+        <v>13.025402</v>
       </c>
       <c r="I13">
-        <v>0.1412843397027848</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J13">
-        <v>0.1412843397027848</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.197488887058519</v>
+        <v>7.997239</v>
       </c>
       <c r="N13">
-        <v>0.197488887058519</v>
+        <v>15.994478</v>
       </c>
       <c r="O13">
-        <v>0.02038363463858944</v>
+        <v>0.7625471830045831</v>
       </c>
       <c r="P13">
-        <v>0.02038363463858944</v>
+        <v>0.6931093066232342</v>
       </c>
       <c r="Q13">
-        <v>1.11944273013598</v>
+        <v>34.72241762169266</v>
       </c>
       <c r="R13">
-        <v>1.11944273013598</v>
+        <v>208.334505730156</v>
       </c>
       <c r="S13">
-        <v>0.002879888360655923</v>
+        <v>0.07497969526572676</v>
       </c>
       <c r="T13">
-        <v>0.002879888360655923</v>
+        <v>0.08945173307113878</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H14">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I14">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J14">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8843721734169659</v>
+        <v>0.388946</v>
       </c>
       <c r="N14">
-        <v>0.8843721734169659</v>
+        <v>0.777892</v>
       </c>
       <c r="O14">
-        <v>0.09127966406598413</v>
+        <v>0.03708650906155245</v>
       </c>
       <c r="P14">
-        <v>0.09127966406598413</v>
+        <v>0.03370939550185763</v>
       </c>
       <c r="Q14">
-        <v>5.012960551916144</v>
+        <v>0.03935874222666667</v>
       </c>
       <c r="R14">
-        <v>5.012960551916144</v>
+        <v>0.23615245336</v>
       </c>
       <c r="S14">
-        <v>0.01289638706585458</v>
+        <v>8.499138885865105E-05</v>
       </c>
       <c r="T14">
-        <v>0.01289638706585458</v>
+        <v>0.0001013958112604463</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H15">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I15">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J15">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.24237150804453</v>
+        <v>0.2382243333333333</v>
       </c>
       <c r="N15">
-        <v>0.24237150804453</v>
+        <v>0.714673</v>
       </c>
       <c r="O15">
-        <v>0.02501615326496686</v>
+        <v>0.02271500130313452</v>
       </c>
       <c r="P15">
-        <v>0.02501615326496686</v>
+        <v>0.03096984518609152</v>
       </c>
       <c r="Q15">
-        <v>1.373854634119978</v>
+        <v>0.02410671437111112</v>
       </c>
       <c r="R15">
-        <v>1.373854634119978</v>
+        <v>0.21696042934</v>
       </c>
       <c r="S15">
-        <v>0.003534390695944508</v>
+        <v>5.205611305920678E-05</v>
       </c>
       <c r="T15">
-        <v>0.003534390695944508</v>
+        <v>9.315541054662724E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H16">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I16">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J16">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.98850705384629</v>
+        <v>1.044414666666667</v>
       </c>
       <c r="N16">
-        <v>7.98850705384629</v>
+        <v>3.133244</v>
       </c>
       <c r="O16">
-        <v>0.8245264405442058</v>
+        <v>0.09958630246705613</v>
       </c>
       <c r="P16">
-        <v>0.8245264405442058</v>
+        <v>0.1357768960213274</v>
       </c>
       <c r="Q16">
-        <v>45.28192081723753</v>
+        <v>0.1056878015022222</v>
       </c>
       <c r="R16">
-        <v>45.28192081723753</v>
+        <v>0.95119021352</v>
       </c>
       <c r="S16">
-        <v>0.1164926737197756</v>
+        <v>0.0002282225631947496</v>
       </c>
       <c r="T16">
-        <v>0.1164926737197756</v>
+        <v>0.0004084086444608324</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>27.763154554531</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H17">
-        <v>27.763154554531</v>
+        <v>0.30358</v>
       </c>
       <c r="I17">
-        <v>0.6919960558115424</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J17">
-        <v>0.6919960558115424</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.375860598353964</v>
+        <v>0.373449</v>
       </c>
       <c r="N17">
-        <v>0.375860598353964</v>
+        <v>1.120347</v>
       </c>
       <c r="O17">
-        <v>0.03879410748625375</v>
+        <v>0.03560884987254709</v>
       </c>
       <c r="P17">
-        <v>0.03879410748625375</v>
+        <v>0.04854943889681305</v>
       </c>
       <c r="Q17">
-        <v>10.4350758830596</v>
+        <v>0.03779054914</v>
       </c>
       <c r="R17">
-        <v>10.4350758830596</v>
+        <v>0.34011494226</v>
       </c>
       <c r="S17">
-        <v>0.02684536936921663</v>
+        <v>8.16050278904382E-05</v>
       </c>
       <c r="T17">
-        <v>0.02684536936921663</v>
+        <v>0.000146033759131354</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>27.763154554531</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H18">
-        <v>27.763154554531</v>
+        <v>0.30358</v>
       </c>
       <c r="I18">
-        <v>0.6919960558115424</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J18">
-        <v>0.6919960558115424</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.197488887058519</v>
+        <v>0.4452603333333334</v>
       </c>
       <c r="N18">
-        <v>0.197488887058519</v>
+        <v>1.335781</v>
       </c>
       <c r="O18">
-        <v>0.02038363463858944</v>
+        <v>0.04245615429112661</v>
       </c>
       <c r="P18">
-        <v>0.02038363463858944</v>
+        <v>0.05788511777067627</v>
       </c>
       <c r="Q18">
-        <v>5.482914494207979</v>
+        <v>0.04505737733111112</v>
       </c>
       <c r="R18">
-        <v>5.482914494207979</v>
+        <v>0.4055163959800001</v>
       </c>
       <c r="S18">
-        <v>0.01410539477300743</v>
+        <v>9.729703900712677E-05</v>
       </c>
       <c r="T18">
-        <v>0.01410539477300743</v>
+        <v>0.0001741149133315297</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>27.763154554531</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H19">
-        <v>27.763154554531</v>
+        <v>0.30358</v>
       </c>
       <c r="I19">
-        <v>0.6919960558115424</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J19">
-        <v>0.6919960558115424</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8843721734169659</v>
+        <v>7.997239</v>
       </c>
       <c r="N19">
-        <v>0.8843721734169659</v>
+        <v>15.994478</v>
       </c>
       <c r="O19">
-        <v>0.09127966406598413</v>
+        <v>0.7625471830045831</v>
       </c>
       <c r="P19">
-        <v>0.09127966406598413</v>
+        <v>0.6931093066232342</v>
       </c>
       <c r="Q19">
-        <v>24.55296133430172</v>
+        <v>0.8092672718733334</v>
       </c>
       <c r="R19">
-        <v>24.55296133430172</v>
+        <v>4.85560363124</v>
       </c>
       <c r="S19">
-        <v>0.0631651675094636</v>
+        <v>0.001747534232630158</v>
       </c>
       <c r="T19">
-        <v>0.0631651675094636</v>
+        <v>0.002084830635226177</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H20">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I20">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J20">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.24237150804453</v>
+        <v>0.388946</v>
       </c>
       <c r="N20">
-        <v>0.24237150804453</v>
+        <v>0.777892</v>
       </c>
       <c r="O20">
-        <v>0.02501615326496686</v>
+        <v>0.03708650906155245</v>
       </c>
       <c r="P20">
-        <v>0.02501615326496686</v>
+        <v>0.03370939550185763</v>
       </c>
       <c r="Q20">
-        <v>6.72899763745504</v>
+        <v>3.177921020762001</v>
       </c>
       <c r="R20">
-        <v>6.72899763745504</v>
+        <v>19.067526124572</v>
       </c>
       <c r="S20">
-        <v>0.01731107939093411</v>
+        <v>0.00686241241354168</v>
       </c>
       <c r="T20">
-        <v>0.01731107939093411</v>
+        <v>0.008186945562591433</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,681 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H21">
+        <v>24.511791</v>
+      </c>
+      <c r="I21">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J21">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2382243333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.714673</v>
+      </c>
+      <c r="O21">
+        <v>0.02271500130313452</v>
+      </c>
+      <c r="P21">
+        <v>0.03096984518609152</v>
+      </c>
+      <c r="Q21">
+        <v>1.946435023260334</v>
+      </c>
+      <c r="R21">
+        <v>17.517915209343</v>
+      </c>
+      <c r="S21">
+        <v>0.004203137767901862</v>
+      </c>
+      <c r="T21">
+        <v>0.007521595473476918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H22">
+        <v>24.511791</v>
+      </c>
+      <c r="I22">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J22">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.044414666666667</v>
+      </c>
+      <c r="N22">
+        <v>3.133244</v>
+      </c>
+      <c r="O22">
+        <v>0.09958630246705613</v>
+      </c>
+      <c r="P22">
+        <v>0.1357768960213274</v>
+      </c>
+      <c r="Q22">
+        <v>8.533491342222668</v>
+      </c>
+      <c r="R22">
+        <v>76.801422080004</v>
+      </c>
+      <c r="S22">
+        <v>0.01842724741588377</v>
+      </c>
+      <c r="T22">
+        <v>0.0329759119033442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H23">
+        <v>24.511791</v>
+      </c>
+      <c r="I23">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J23">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.373449</v>
+      </c>
+      <c r="N23">
+        <v>1.120347</v>
+      </c>
+      <c r="O23">
+        <v>0.03560884987254709</v>
+      </c>
+      <c r="P23">
+        <v>0.04854943889681305</v>
+      </c>
+      <c r="Q23">
+        <v>3.051301279053</v>
+      </c>
+      <c r="R23">
+        <v>27.461711511477</v>
+      </c>
+      <c r="S23">
+        <v>0.006588989354369828</v>
+      </c>
+      <c r="T23">
+        <v>0.01179112254684792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H24">
+        <v>24.511791</v>
+      </c>
+      <c r="I24">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J24">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.4452603333333334</v>
+      </c>
+      <c r="N24">
+        <v>1.335781</v>
+      </c>
+      <c r="O24">
+        <v>0.04245615429112661</v>
+      </c>
+      <c r="P24">
+        <v>0.05788511777067627</v>
+      </c>
+      <c r="Q24">
+        <v>3.638042743752334</v>
+      </c>
+      <c r="R24">
+        <v>32.74238469377101</v>
+      </c>
+      <c r="S24">
+        <v>0.007856000675477761</v>
+      </c>
+      <c r="T24">
+        <v>0.01405846355348036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H25">
+        <v>24.511791</v>
+      </c>
+      <c r="I25">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J25">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.997239</v>
+      </c>
+      <c r="N25">
+        <v>15.994478</v>
+      </c>
+      <c r="O25">
+        <v>0.7625471830045831</v>
+      </c>
+      <c r="P25">
+        <v>0.6931093066232342</v>
+      </c>
+      <c r="Q25">
+        <v>65.34221698168301</v>
+      </c>
+      <c r="R25">
+        <v>392.053301890098</v>
+      </c>
+      <c r="S25">
+        <v>0.1411001840555235</v>
+      </c>
+      <c r="T25">
+        <v>0.1683343197874079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>28.2492</v>
+      </c>
+      <c r="H26">
+        <v>56.4984</v>
+      </c>
+      <c r="I26">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J26">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.388946</v>
+      </c>
+      <c r="N26">
+        <v>0.777892</v>
+      </c>
+      <c r="O26">
+        <v>0.03708650906155245</v>
+      </c>
+      <c r="P26">
+        <v>0.03370939550185763</v>
+      </c>
+      <c r="Q26">
+        <v>10.9874133432</v>
+      </c>
+      <c r="R26">
+        <v>43.94965337280001</v>
+      </c>
+      <c r="S26">
+        <v>0.02372625412226568</v>
+      </c>
+      <c r="T26">
+        <v>0.01887048258421899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>28.2492</v>
+      </c>
+      <c r="H27">
+        <v>56.4984</v>
+      </c>
+      <c r="I27">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J27">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.2382243333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.714673</v>
+      </c>
+      <c r="O27">
+        <v>0.02271500130313452</v>
+      </c>
+      <c r="P27">
+        <v>0.03096984518609152</v>
+      </c>
+      <c r="Q27">
+        <v>6.729646837200001</v>
+      </c>
+      <c r="R27">
+        <v>40.3778810232</v>
+      </c>
+      <c r="S27">
+        <v>0.01453202005104563</v>
+      </c>
+      <c r="T27">
+        <v>0.01733688532586983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>28.2492</v>
+      </c>
+      <c r="H28">
+        <v>56.4984</v>
+      </c>
+      <c r="I28">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J28">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.044414666666667</v>
+      </c>
+      <c r="N28">
+        <v>3.133244</v>
+      </c>
+      <c r="O28">
+        <v>0.09958630246705613</v>
+      </c>
+      <c r="P28">
+        <v>0.1357768960213274</v>
+      </c>
+      <c r="Q28">
+        <v>29.5038788016</v>
+      </c>
+      <c r="R28">
+        <v>177.0232728096</v>
+      </c>
+      <c r="S28">
+        <v>0.06371076650834497</v>
+      </c>
+      <c r="T28">
+        <v>0.07600775729035476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>28.2492</v>
+      </c>
+      <c r="H29">
+        <v>56.4984</v>
+      </c>
+      <c r="I29">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J29">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.373449</v>
+      </c>
+      <c r="N29">
+        <v>1.120347</v>
+      </c>
+      <c r="O29">
+        <v>0.03560884987254709</v>
+      </c>
+      <c r="P29">
+        <v>0.04854943889681305</v>
+      </c>
+      <c r="Q29">
+        <v>10.5496354908</v>
+      </c>
+      <c r="R29">
+        <v>63.2978129448</v>
+      </c>
+      <c r="S29">
+        <v>0.02278091528311384</v>
+      </c>
+      <c r="T29">
+        <v>0.02717792258023221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>27.763154554531</v>
-      </c>
-      <c r="H21">
-        <v>27.763154554531</v>
-      </c>
-      <c r="I21">
-        <v>0.6919960558115424</v>
-      </c>
-      <c r="J21">
-        <v>0.6919960558115424</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>7.98850705384629</v>
-      </c>
-      <c r="N21">
-        <v>7.98850705384629</v>
-      </c>
-      <c r="O21">
-        <v>0.8245264405442058</v>
-      </c>
-      <c r="P21">
-        <v>0.8245264405442058</v>
-      </c>
-      <c r="Q21">
-        <v>221.7861559958957</v>
-      </c>
-      <c r="R21">
-        <v>221.7861559958957</v>
-      </c>
-      <c r="S21">
-        <v>0.5705690447689207</v>
-      </c>
-      <c r="T21">
-        <v>0.5705690447689207</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>28.2492</v>
+      </c>
+      <c r="H30">
+        <v>56.4984</v>
+      </c>
+      <c r="I30">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J30">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.4452603333333334</v>
+      </c>
+      <c r="N30">
+        <v>1.335781</v>
+      </c>
+      <c r="O30">
+        <v>0.04245615429112661</v>
+      </c>
+      <c r="P30">
+        <v>0.05788511777067627</v>
+      </c>
+      <c r="Q30">
+        <v>12.5782482084</v>
+      </c>
+      <c r="R30">
+        <v>75.46948925040002</v>
+      </c>
+      <c r="S30">
+        <v>0.02716150781658994</v>
+      </c>
+      <c r="T30">
+        <v>0.0324040253619148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>28.2492</v>
+      </c>
+      <c r="H31">
+        <v>56.4984</v>
+      </c>
+      <c r="I31">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J31">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>7.997239</v>
+      </c>
+      <c r="N31">
+        <v>15.994478</v>
+      </c>
+      <c r="O31">
+        <v>0.7625471830045831</v>
+      </c>
+      <c r="P31">
+        <v>0.6931093066232342</v>
+      </c>
+      <c r="Q31">
+        <v>225.9156039588</v>
+      </c>
+      <c r="R31">
+        <v>903.6624158352</v>
+      </c>
+      <c r="S31">
+        <v>0.4878428491114289</v>
+      </c>
+      <c r="T31">
+        <v>0.3880018287148779</v>
       </c>
     </row>
   </sheetData>
